--- a/algoritm/Valladata_full.xlsx
+++ b/algoritm/Valladata_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\Trean\LP3\Kandidatarbete\EENX16-23-19\algoritm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED00ADCD-ACF9-4ECE-8688-2F8E09C2EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C2F7B-E6D3-4F7A-811C-E0B748B2FF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,8 +381,8 @@
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>-1</v>
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>-2</v>
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>-3</v>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>-3</v>
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>-4</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>-5</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>-5</v>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>-7</v>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>-7</v>
@@ -629,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>-8</v>
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>-10</v>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>-10</v>
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>-11</v>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>-12</v>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>-14</v>
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>-14</v>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>-15</v>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>-17</v>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -876,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -896,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>-1</v>
@@ -976,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>-2</v>
@@ -1036,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>-3</v>
@@ -1056,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>-3</v>
@@ -1076,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <v>-4</v>
@@ -1096,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>-6</v>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>-6</v>
@@ -1136,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>-7</v>
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>-9</v>
@@ -1176,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>-9</v>
@@ -1196,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>-10</v>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>-11</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>-12</v>
@@ -1256,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <v>-13</v>
@@ -1276,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>-14</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>-14</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
         <v>-16</v>
@@ -1336,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>-17</v>
@@ -1356,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -1376,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>4</v>
@@ -1416,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -1476,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>-1</v>
@@ -1496,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>-2</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>-3</v>
@@ -1596,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <v>-1</v>
@@ -1616,7 +1616,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
         <v>-1</v>
@@ -1636,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>-2</v>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>-5</v>
@@ -1676,7 +1676,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>-4</v>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>-7</v>
@@ -1716,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>-5</v>
@@ -1736,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1">
         <v>-7</v>
@@ -1756,7 +1756,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>-11</v>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>-7</v>
@@ -1796,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>-9</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
         <v>-10</v>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1">
         <v>-12</v>
@@ -1856,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>-12</v>
@@ -1876,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v>-15</v>
@@ -1896,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
         <v>-13</v>
@@ -1916,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1">
         <v>5</v>
@@ -1936,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
         <v>7</v>
@@ -1956,7 +1956,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
         <v>2</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -2016,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
         <v>-1</v>
@@ -2056,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1">
         <v>2</v>
@@ -2096,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -2116,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1">
         <v>-2</v>
@@ -2156,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1">
         <v>-4</v>
@@ -2176,7 +2176,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1">
         <v>-2</v>
@@ -2196,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1">
         <v>-5</v>
@@ -2216,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
         <v>-6</v>
@@ -2256,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1">
         <v>-6</v>
@@ -2276,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1">
         <v>-6</v>
@@ -2296,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1">
         <v>-9</v>
@@ -2316,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
         <v>-7</v>
@@ -2336,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1">
         <v>-7</v>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
         <v>-11</v>
@@ -2376,7 +2376,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1">
         <v>-9</v>
@@ -2396,7 +2396,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1">
         <v>-10</v>
@@ -2416,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
         <v>-11</v>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1">
         <v>-14</v>
@@ -2456,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1">
         <v>-12</v>
@@ -2476,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="1">
         <v>-13</v>

--- a/algoritm/Valladata_full.xlsx
+++ b/algoritm/Valladata_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\Trean\LP3\Kandidatarbete\EENX16-23-19\algoritm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C2F7B-E6D3-4F7A-811C-E0B748B2FF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0BDADA-AC52-424C-9CD3-A9A7805BBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,8 +381,8 @@
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -448,7 +448,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="1">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -469,7 +469,7 @@
         <v>-2</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -490,7 +490,7 @@
         <v>-3</v>
       </c>
       <c r="F5" s="1">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -511,7 +511,7 @@
         <v>-3</v>
       </c>
       <c r="F6" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -532,7 +532,7 @@
         <v>-4</v>
       </c>
       <c r="F7" s="1">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -553,7 +553,7 @@
         <v>-5</v>
       </c>
       <c r="F8" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -574,7 +574,7 @@
         <v>-5</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
@@ -594,7 +594,7 @@
         <v>-7</v>
       </c>
       <c r="F10" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -615,7 +615,7 @@
         <v>-7</v>
       </c>
       <c r="F11" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
@@ -635,7 +635,7 @@
         <v>-8</v>
       </c>
       <c r="F12" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -655,7 +655,7 @@
         <v>-10</v>
       </c>
       <c r="F13" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1"/>
@@ -677,7 +677,7 @@
         <v>-10</v>
       </c>
       <c r="F14" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -698,7 +698,7 @@
         <v>-11</v>
       </c>
       <c r="F15" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
@@ -720,7 +720,7 @@
         <v>-12</v>
       </c>
       <c r="F16" s="1">
-        <v>1.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -740,7 +740,7 @@
         <v>-14</v>
       </c>
       <c r="F17" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -760,7 +760,7 @@
         <v>-14</v>
       </c>
       <c r="F18" s="1">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -781,7 +781,7 @@
         <v>-15</v>
       </c>
       <c r="F19" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -821,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.5">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.5">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>5.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.5">
@@ -902,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.5">
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.5">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.5">
@@ -962,7 +962,7 @@
         <v>-1</v>
       </c>
       <c r="F28" s="1">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.5">
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>4.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.5">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>4.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.5">
@@ -1022,7 +1022,7 @@
         <v>-2</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.5">
@@ -1042,7 +1042,7 @@
         <v>-3</v>
       </c>
       <c r="F32" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.5">
@@ -1062,7 +1062,7 @@
         <v>-3</v>
       </c>
       <c r="F33" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.5">
@@ -1082,7 +1082,7 @@
         <v>-4</v>
       </c>
       <c r="F34" s="1">
-        <v>3.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.5">
@@ -1102,7 +1102,7 @@
         <v>-6</v>
       </c>
       <c r="F35" s="1">
-        <v>2.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.5">
@@ -1122,7 +1122,7 @@
         <v>-6</v>
       </c>
       <c r="F36" s="1">
-        <v>2.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.5">
@@ -1142,7 +1142,7 @@
         <v>-7</v>
       </c>
       <c r="F37" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.5">
@@ -1162,7 +1162,7 @@
         <v>-9</v>
       </c>
       <c r="F38" s="1">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.5">
@@ -1182,7 +1182,7 @@
         <v>-9</v>
       </c>
       <c r="F39" s="1">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.5">
@@ -1202,7 +1202,7 @@
         <v>-10</v>
       </c>
       <c r="F40" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.5">
@@ -1222,7 +1222,7 @@
         <v>-11</v>
       </c>
       <c r="F41" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.5">
@@ -1242,7 +1242,7 @@
         <v>-12</v>
       </c>
       <c r="F42" s="1">
-        <v>1.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.5">
@@ -1262,7 +1262,7 @@
         <v>-13</v>
       </c>
       <c r="F43" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.5">
@@ -1282,7 +1282,7 @@
         <v>-14</v>
       </c>
       <c r="F44" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.5">
@@ -1302,7 +1302,7 @@
         <v>-14</v>
       </c>
       <c r="F45" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.5">
@@ -1322,7 +1322,7 @@
         <v>-16</v>
       </c>
       <c r="F46" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.5">
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="1">
-        <v>6.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.5">
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.5">
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1">
-        <v>5.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.5">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.5">
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.5">
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1">
-        <v>5.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.5">
@@ -1482,7 +1482,7 @@
         <v>-1</v>
       </c>
       <c r="F54" s="1">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.5">
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>3.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.5">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>4.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.5">
@@ -1542,7 +1542,7 @@
         <v>-2</v>
       </c>
       <c r="F57" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.5">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.5">
@@ -1582,7 +1582,7 @@
         <v>-3</v>
       </c>
       <c r="F59" s="1">
-        <v>3.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.5">
@@ -1602,7 +1602,7 @@
         <v>-1</v>
       </c>
       <c r="F60" s="1">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.5">
@@ -1622,7 +1622,7 @@
         <v>-1</v>
       </c>
       <c r="F61" s="1">
-        <v>4.4000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.5">
@@ -1642,7 +1642,7 @@
         <v>-2</v>
       </c>
       <c r="F62" s="1">
-        <v>3.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.5">
@@ -1662,7 +1662,7 @@
         <v>-5</v>
       </c>
       <c r="F63" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.5">
@@ -1682,7 +1682,7 @@
         <v>-4</v>
       </c>
       <c r="F64" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.5">
@@ -1702,7 +1702,7 @@
         <v>-7</v>
       </c>
       <c r="F65" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.5">
@@ -1722,7 +1722,7 @@
         <v>-5</v>
       </c>
       <c r="F66" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12.5">
@@ -1742,7 +1742,7 @@
         <v>-7</v>
       </c>
       <c r="F67" s="1">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="12.5">
@@ -1762,7 +1762,7 @@
         <v>-11</v>
       </c>
       <c r="F68" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.5">
@@ -1782,7 +1782,7 @@
         <v>-7</v>
       </c>
       <c r="F69" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.5">
@@ -1802,7 +1802,7 @@
         <v>-9</v>
       </c>
       <c r="F70" s="1">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.5">
@@ -1822,7 +1822,7 @@
         <v>-10</v>
       </c>
       <c r="F71" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.5">
@@ -1842,7 +1842,7 @@
         <v>-12</v>
       </c>
       <c r="F72" s="1">
-        <v>1.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.5">
@@ -1862,7 +1862,7 @@
         <v>-12</v>
       </c>
       <c r="F73" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.5">
@@ -1882,7 +1882,7 @@
         <v>-15</v>
       </c>
       <c r="F74" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.5">
@@ -1902,7 +1902,7 @@
         <v>-13</v>
       </c>
       <c r="F75" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.5">
@@ -1922,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="F76" s="1">
-        <v>6.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.5">
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="1">
-        <v>7.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.5">
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="1">
-        <v>5.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.5">
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="1">
-        <v>5.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.5">
@@ -2002,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="F80" s="1">
-        <v>6.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.5">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>4.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="12.5">
@@ -2042,7 +2042,7 @@
         <v>-1</v>
       </c>
       <c r="F82" s="1">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="12.5">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <v>4.9000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="12.5">
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="F84" s="1">
-        <v>5.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.5">
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="F85" s="1">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12.5">
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="12.5">
@@ -2142,7 +2142,7 @@
         <v>-2</v>
       </c>
       <c r="F87" s="1">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="12.5">
@@ -2162,7 +2162,7 @@
         <v>-4</v>
       </c>
       <c r="F88" s="1">
-        <v>3.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.5">
@@ -2182,7 +2182,7 @@
         <v>-2</v>
       </c>
       <c r="F89" s="1">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.5">
@@ -2202,7 +2202,7 @@
         <v>-5</v>
       </c>
       <c r="F90" s="1">
-        <v>3.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.5">
@@ -2222,7 +2222,7 @@
         <v>-1</v>
       </c>
       <c r="F91" s="1">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="12.5">
@@ -2242,7 +2242,7 @@
         <v>-6</v>
       </c>
       <c r="F92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="12.5">
@@ -2262,7 +2262,7 @@
         <v>-6</v>
       </c>
       <c r="F93" s="1">
-        <v>2.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.5">
@@ -2282,7 +2282,7 @@
         <v>-6</v>
       </c>
       <c r="F94" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="12.5">
@@ -2302,7 +2302,7 @@
         <v>-9</v>
       </c>
       <c r="F95" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.5">
@@ -2322,7 +2322,7 @@
         <v>-7</v>
       </c>
       <c r="F96" s="1">
-        <v>2.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="12.5">
@@ -2342,7 +2342,7 @@
         <v>-7</v>
       </c>
       <c r="F97" s="1">
-        <v>2.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.5">
@@ -2362,7 +2362,7 @@
         <v>-11</v>
       </c>
       <c r="F98" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="12.5">
@@ -2382,7 +2382,7 @@
         <v>-9</v>
       </c>
       <c r="F99" s="1">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12.5">
@@ -2402,7 +2402,7 @@
         <v>-10</v>
       </c>
       <c r="F100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="12.5">
@@ -2422,7 +2422,7 @@
         <v>-11</v>
       </c>
       <c r="F101" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12.5">
@@ -2442,7 +2442,7 @@
         <v>-14</v>
       </c>
       <c r="F102" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="12.5">
@@ -2462,7 +2462,7 @@
         <v>-12</v>
       </c>
       <c r="F103" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.5">
@@ -2482,7 +2482,7 @@
         <v>-13</v>
       </c>
       <c r="F104" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
